--- a/data/georgia_census/kakheti/dedofliswyaro/healthcare_staff.xlsx
+++ b/data/georgia_census/kakheti/dedofliswyaro/healthcare_staff.xlsx
@@ -1364,13 +1364,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EAE700F-43BD-435E-A8C0-D06B7DCB2887}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C0365F2-1B11-491B-984C-F01DCAF8422D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE2D36DB-A657-43AB-84D9-639900CC7D38}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93175F9E-2653-4314-83D6-262630532295}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C817D0BC-82D2-4E0D-A7C4-9DF6B63BD4FB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F49B116-A2FB-4C00-908F-BC903595FEF6}"/>
 </file>